--- a/Code/Results/Cases/Case_5_102/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_102/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.988316983312867</v>
+        <v>1.019738287951536</v>
       </c>
       <c r="D2">
-        <v>1.009017903519744</v>
+        <v>1.025030341685802</v>
       </c>
       <c r="E2">
-        <v>0.9963847345116081</v>
+        <v>1.020836431697836</v>
       </c>
       <c r="F2">
-        <v>0.9975632322784102</v>
+        <v>1.030944436962417</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04096685621361</v>
+        <v>1.029496139713008</v>
       </c>
       <c r="J2">
-        <v>1.010852836372217</v>
+        <v>1.02493935506123</v>
       </c>
       <c r="K2">
-        <v>1.020353018149685</v>
+        <v>1.027857106925973</v>
       </c>
       <c r="L2">
-        <v>1.007894666569465</v>
+        <v>1.023675539495702</v>
       </c>
       <c r="M2">
-        <v>1.00905661986194</v>
+        <v>1.033753982721449</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.992964636783118</v>
+        <v>1.020703686673239</v>
       </c>
       <c r="D3">
-        <v>1.012349381313163</v>
+        <v>1.025726643926148</v>
       </c>
       <c r="E3">
-        <v>1.000086690277572</v>
+        <v>1.021655332347686</v>
       </c>
       <c r="F3">
-        <v>1.003019541230735</v>
+        <v>1.032136402432164</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042332581709041</v>
+        <v>1.029689213294664</v>
       </c>
       <c r="J3">
-        <v>1.013648947790226</v>
+        <v>1.025541555563746</v>
       </c>
       <c r="K3">
-        <v>1.02282665081231</v>
+        <v>1.028360927276579</v>
       </c>
       <c r="L3">
-        <v>1.010718462005549</v>
+        <v>1.024300730009215</v>
       </c>
       <c r="M3">
-        <v>1.013613931708642</v>
+        <v>1.034753379959492</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9959062197391835</v>
+        <v>1.021328463415899</v>
       </c>
       <c r="D4">
-        <v>1.014458310612638</v>
+        <v>1.026176907473451</v>
       </c>
       <c r="E4">
-        <v>1.002436024241196</v>
+        <v>1.022185701889502</v>
       </c>
       <c r="F4">
-        <v>1.006472011252078</v>
+        <v>1.032907738130818</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043181965962655</v>
+        <v>1.029812313717949</v>
       </c>
       <c r="J4">
-        <v>1.01541522772641</v>
+        <v>1.025930745148472</v>
       </c>
       <c r="K4">
-        <v>1.024385313018999</v>
+        <v>1.028685970249506</v>
       </c>
       <c r="L4">
-        <v>1.012505137243404</v>
+        <v>1.024705110954109</v>
       </c>
       <c r="M4">
-        <v>1.016492947372889</v>
+        <v>1.035399548077043</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9971277080612966</v>
+        <v>1.021591142922445</v>
       </c>
       <c r="D5">
-        <v>1.015334067652191</v>
+        <v>1.026366127659805</v>
       </c>
       <c r="E5">
-        <v>1.003413046199821</v>
+        <v>1.022408784695844</v>
       </c>
       <c r="F5">
-        <v>1.007905468183299</v>
+        <v>1.033232021099601</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043531019660985</v>
+        <v>1.029863626293857</v>
       </c>
       <c r="J5">
-        <v>1.016147816815961</v>
+        <v>1.026094246310487</v>
       </c>
       <c r="K5">
-        <v>1.025030830334265</v>
+        <v>1.028822387181625</v>
       </c>
       <c r="L5">
-        <v>1.01324688164879</v>
+        <v>1.024875073954772</v>
       </c>
       <c r="M5">
-        <v>1.017687177673939</v>
+        <v>1.035671075563872</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9973319292873004</v>
+        <v>1.021635249326208</v>
       </c>
       <c r="D6">
-        <v>1.015480485674683</v>
+        <v>1.026397894390559</v>
       </c>
       <c r="E6">
-        <v>1.003576479718349</v>
+        <v>1.022446248024102</v>
       </c>
       <c r="F6">
-        <v>1.008145119434929</v>
+        <v>1.033286470437726</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043589161944906</v>
+        <v>1.029872216153353</v>
       </c>
       <c r="J6">
-        <v>1.016270247441953</v>
+        <v>1.026121692165338</v>
       </c>
       <c r="K6">
-        <v>1.025138652456353</v>
+        <v>1.028845278610151</v>
       </c>
       <c r="L6">
-        <v>1.013370883209033</v>
+        <v>1.024903609199129</v>
       </c>
       <c r="M6">
-        <v>1.017886766969213</v>
+        <v>1.035716659099356</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9959226001099598</v>
+        <v>1.021331973261006</v>
       </c>
       <c r="D7">
-        <v>1.01447005464244</v>
+        <v>1.026179436121619</v>
       </c>
       <c r="E7">
-        <v>1.002449120550541</v>
+        <v>1.022188682280392</v>
       </c>
       <c r="F7">
-        <v>1.006491234798424</v>
+        <v>1.032912071162373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043186661331413</v>
+        <v>1.029813001084054</v>
       </c>
       <c r="J7">
-        <v>1.015425055300701</v>
+        <v>1.02593293030821</v>
       </c>
       <c r="K7">
-        <v>1.024393976359383</v>
+        <v>1.028687793968336</v>
       </c>
       <c r="L7">
-        <v>1.012515084884594</v>
+        <v>1.024707382161129</v>
       </c>
       <c r="M7">
-        <v>1.016508967235537</v>
+        <v>1.035403176718142</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9899016611275571</v>
+        <v>1.020064528193567</v>
       </c>
       <c r="D8">
-        <v>1.010153695371182</v>
+        <v>1.025265719823458</v>
       </c>
       <c r="E8">
-        <v>0.9976456123018272</v>
+        <v>1.021113081816247</v>
       </c>
       <c r="F8">
-        <v>0.9994238547140042</v>
+        <v>1.03134725628497</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041435637017876</v>
+        <v>1.029561768690441</v>
       </c>
       <c r="J8">
-        <v>1.011806905906198</v>
+        <v>1.025142969431612</v>
       </c>
       <c r="K8">
-        <v>1.021197862761157</v>
+        <v>1.028027574234045</v>
       </c>
       <c r="L8">
-        <v>1.008857569996413</v>
+        <v>1.023886858112236</v>
       </c>
       <c r="M8">
-        <v>1.010611635913294</v>
+        <v>1.034091839153248</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9787600997153499</v>
+        <v>1.017831904535958</v>
       </c>
       <c r="D9">
-        <v>1.002172499247459</v>
+        <v>1.02365345532043</v>
       </c>
       <c r="E9">
-        <v>0.9888095135953612</v>
+        <v>1.019221498950827</v>
       </c>
       <c r="F9">
-        <v>0.9863362008851424</v>
+        <v>1.028590248579319</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038077962439929</v>
+        <v>1.029105061681927</v>
       </c>
       <c r="J9">
-        <v>1.005085851493501</v>
+        <v>1.023747348534171</v>
       </c>
       <c r="K9">
-        <v>1.015230427230317</v>
+        <v>1.026856842232393</v>
       </c>
       <c r="L9">
-        <v>1.002086795929662</v>
+        <v>1.02243979969793</v>
       </c>
       <c r="M9">
-        <v>0.9996549233092439</v>
+        <v>1.031777188906146</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9709323446697896</v>
+        <v>1.016344030523937</v>
       </c>
       <c r="D10">
-        <v>0.9965738134271364</v>
+        <v>1.022577206797014</v>
       </c>
       <c r="E10">
-        <v>0.9826407384743043</v>
+        <v>1.01796302558609</v>
       </c>
       <c r="F10">
-        <v>0.9771310525306329</v>
+        <v>1.026752478039145</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035642672814128</v>
+        <v>1.02879120178292</v>
       </c>
       <c r="J10">
-        <v>1.000348665827502</v>
+        <v>1.022814539440733</v>
       </c>
       <c r="K10">
-        <v>1.011005205509594</v>
+        <v>1.026071459071635</v>
       </c>
       <c r="L10">
-        <v>0.9973306564524528</v>
+        <v>1.021474330670373</v>
       </c>
       <c r="M10">
-        <v>0.9919258649249165</v>
+        <v>1.030231445588204</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9674375490543136</v>
+        <v>1.015699896425218</v>
       </c>
       <c r="D11">
-        <v>0.9940773503035354</v>
+        <v>1.022110858042479</v>
       </c>
       <c r="E11">
-        <v>0.9798967739009046</v>
+        <v>1.017418715576875</v>
       </c>
       <c r="F11">
-        <v>0.9730180067358303</v>
+        <v>1.025956750587812</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034538069393961</v>
+        <v>1.028653075352977</v>
       </c>
       <c r="J11">
-        <v>0.9982306356387588</v>
+        <v>1.022410060726851</v>
       </c>
       <c r="K11">
-        <v>1.009111830167125</v>
+        <v>1.025730226370975</v>
       </c>
       <c r="L11">
-        <v>0.9952080335991902</v>
+        <v>1.021056098102066</v>
       </c>
       <c r="M11">
-        <v>0.9884673563472883</v>
+        <v>1.029561489867695</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9661226340028184</v>
+        <v>1.01546065530643</v>
       </c>
       <c r="D12">
-        <v>0.9931386255329828</v>
+        <v>1.021937587281705</v>
       </c>
       <c r="E12">
-        <v>0.9788659623088334</v>
+        <v>1.01721662812849</v>
       </c>
       <c r="F12">
-        <v>0.9714698956510845</v>
+        <v>1.025661187059344</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034119924830626</v>
+        <v>1.028601435420978</v>
       </c>
       <c r="J12">
-        <v>0.997433316726798</v>
+        <v>1.022259734669951</v>
       </c>
       <c r="K12">
-        <v>1.008398469908958</v>
+        <v>1.025603304157358</v>
       </c>
       <c r="L12">
-        <v>0.9944095754280246</v>
+        <v>1.020900721670035</v>
       </c>
       <c r="M12">
-        <v>0.9871648885778599</v>
+        <v>1.029312541983181</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9664054640335057</v>
+        <v>1.015511972477741</v>
       </c>
       <c r="D13">
-        <v>0.9933405121039266</v>
+        <v>1.021974756608696</v>
       </c>
       <c r="E13">
-        <v>0.9790876097239005</v>
+        <v>1.017259972327397</v>
       </c>
       <c r="F13">
-        <v>0.9718029123230667</v>
+        <v>1.025724586223156</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03420997867143</v>
+        <v>1.028612527453252</v>
       </c>
       <c r="J13">
-        <v>0.9976048328317566</v>
+        <v>1.022291983943561</v>
       </c>
       <c r="K13">
-        <v>1.00855195232542</v>
+        <v>1.025630537231348</v>
       </c>
       <c r="L13">
-        <v>0.9945813098607944</v>
+        <v>1.020934051620927</v>
       </c>
       <c r="M13">
-        <v>0.987445096385954</v>
+        <v>1.029365946525158</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9673292061982199</v>
+        <v>1.015680120291893</v>
       </c>
       <c r="D14">
-        <v>0.9939999916487194</v>
+        <v>1.022096536402676</v>
       </c>
       <c r="E14">
-        <v>0.9798118067978139</v>
+        <v>1.017402009052943</v>
       </c>
       <c r="F14">
-        <v>0.9728904619094229</v>
+        <v>1.025932319115601</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0345036674098</v>
+        <v>1.028648813583898</v>
       </c>
       <c r="J14">
-        <v>0.998164948354833</v>
+        <v>1.022397636452607</v>
       </c>
       <c r="K14">
-        <v>1.009053072092661</v>
+        <v>1.025719738471046</v>
       </c>
       <c r="L14">
-        <v>0.9951422404392558</v>
+        <v>1.02104325516988</v>
       </c>
       <c r="M14">
-        <v>0.9883600638163808</v>
+        <v>1.029540913729659</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9678960988125069</v>
+        <v>1.015783724227672</v>
       </c>
       <c r="D15">
-        <v>0.9944047864218521</v>
+        <v>1.02217156261059</v>
       </c>
       <c r="E15">
-        <v>0.9802564540468134</v>
+        <v>1.01748953498373</v>
       </c>
       <c r="F15">
-        <v>0.9735578026751529</v>
+        <v>1.0260603108545</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034683569177182</v>
+        <v>1.028671126468565</v>
       </c>
       <c r="J15">
-        <v>0.9985086337090976</v>
+        <v>1.022462721245388</v>
       </c>
       <c r="K15">
-        <v>1.009360478087755</v>
+        <v>1.025774675365808</v>
       </c>
       <c r="L15">
-        <v>0.995486503809686</v>
+        <v>1.021110535619872</v>
       </c>
       <c r="M15">
-        <v>0.9889214113598307</v>
+        <v>1.029648703995334</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9711619827315047</v>
+        <v>1.016386782233533</v>
       </c>
       <c r="D16">
-        <v>0.9967379258289949</v>
+        <v>1.02260815003692</v>
       </c>
       <c r="E16">
-        <v>0.9828212583519003</v>
+        <v>1.017999162721121</v>
       </c>
       <c r="F16">
-        <v>0.9774012393789767</v>
+        <v>1.026805288607026</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035714899463258</v>
+        <v>1.028800321973304</v>
       </c>
       <c r="J16">
-        <v>1.000487778978508</v>
+        <v>1.022841371466759</v>
       </c>
       <c r="K16">
-        <v>1.011129477123368</v>
+        <v>1.026094081242707</v>
       </c>
       <c r="L16">
-        <v>0.9974701525214904</v>
+        <v>1.021502083680833</v>
       </c>
       <c r="M16">
-        <v>0.9921529537117597</v>
+        <v>1.030275894840318</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9731817267829965</v>
+        <v>1.016765098212869</v>
       </c>
       <c r="D17">
-        <v>0.9981817175771202</v>
+        <v>1.022881923152811</v>
       </c>
       <c r="E17">
-        <v>0.9844101551973687</v>
+        <v>1.018319004553044</v>
       </c>
       <c r="F17">
-        <v>0.9797772395595583</v>
+        <v>1.027272603411322</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03634819416279</v>
+        <v>1.028880767988118</v>
       </c>
       <c r="J17">
-        <v>1.001710984176039</v>
+        <v>1.023078737447903</v>
       </c>
       <c r="K17">
-        <v>1.01222170315843</v>
+        <v>1.026294126859509</v>
       </c>
       <c r="L17">
-        <v>0.9986971662828474</v>
+        <v>1.021747644121872</v>
       </c>
       <c r="M17">
-        <v>0.9941493879708034</v>
+        <v>1.030669143713461</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.974349716226368</v>
+        <v>1.016985775589159</v>
       </c>
       <c r="D18">
-        <v>0.9990169325859688</v>
+        <v>1.02304157886023</v>
       </c>
       <c r="E18">
-        <v>0.9853299489467305</v>
+        <v>1.018505622386642</v>
       </c>
       <c r="F18">
-        <v>0.981150940546598</v>
+        <v>1.027545184080056</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036712772407344</v>
+        <v>1.028927476274301</v>
       </c>
       <c r="J18">
-        <v>1.002418053631706</v>
+        <v>1.023217134349091</v>
       </c>
       <c r="K18">
-        <v>1.012852656657097</v>
+        <v>1.026410698449219</v>
       </c>
       <c r="L18">
-        <v>0.99940680423891</v>
+        <v>1.021890858152786</v>
       </c>
       <c r="M18">
-        <v>0.9953031635742656</v>
+        <v>1.030898457543139</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9747462866434577</v>
+        <v>1.01706102291337</v>
       </c>
       <c r="D19">
-        <v>0.999300561756697</v>
+        <v>1.023096011956427</v>
       </c>
       <c r="E19">
-        <v>0.9856424089815957</v>
+        <v>1.018569264314186</v>
       </c>
       <c r="F19">
-        <v>0.9816173071534102</v>
+        <v>1.027638127722175</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036836277235254</v>
+        <v>1.028943366196717</v>
       </c>
       <c r="J19">
-        <v>1.002658075650468</v>
+        <v>1.023264314831975</v>
       </c>
       <c r="K19">
-        <v>1.013066771026726</v>
+        <v>1.026450427396257</v>
       </c>
       <c r="L19">
-        <v>0.9996477602312851</v>
+        <v>1.021939687499553</v>
       </c>
       <c r="M19">
-        <v>0.9956947844440389</v>
+        <v>1.030976637203832</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9729660780902462</v>
+        <v>1.0167245072393</v>
       </c>
       <c r="D20">
-        <v>0.9980275326542137</v>
+        <v>1.022852553141931</v>
       </c>
       <c r="E20">
-        <v>0.984240408325881</v>
+        <v>1.018284682390856</v>
       </c>
       <c r="F20">
-        <v>0.9795235856581965</v>
+        <v>1.027222464563033</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036280747562088</v>
+        <v>1.028872159077529</v>
       </c>
       <c r="J20">
-        <v>1.001580412235501</v>
+        <v>1.023053275975167</v>
       </c>
       <c r="K20">
-        <v>1.012105154420602</v>
+        <v>1.026272675400665</v>
       </c>
       <c r="L20">
-        <v>0.998566149661037</v>
+        <v>1.021721299587774</v>
       </c>
       <c r="M20">
-        <v>0.993936304508137</v>
+        <v>1.030626958204817</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9670576588713151</v>
+        <v>1.015630604426773</v>
       </c>
       <c r="D21">
-        <v>0.9938061116951238</v>
+        <v>1.022060676608264</v>
       </c>
       <c r="E21">
-        <v>0.9795988738627833</v>
+        <v>1.017360180189406</v>
       </c>
       <c r="F21">
-        <v>0.9725707776952082</v>
+        <v>1.025871146822926</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034417402653893</v>
+        <v>1.02863813742968</v>
       </c>
       <c r="J21">
-        <v>0.9980003052375349</v>
+        <v>1.022366526755538</v>
       </c>
       <c r="K21">
-        <v>1.008905787072869</v>
+        <v>1.025693475705704</v>
       </c>
       <c r="L21">
-        <v>0.9949773414645602</v>
+        <v>1.021011098166544</v>
       </c>
       <c r="M21">
-        <v>0.9880911294422015</v>
+        <v>1.029489392917172</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9632451082928714</v>
+        <v>1.014942934119008</v>
       </c>
       <c r="D22">
-        <v>0.9910855014775931</v>
+        <v>1.021562514736038</v>
       </c>
       <c r="E22">
-        <v>0.9766132009205976</v>
+        <v>1.016779450451999</v>
       </c>
       <c r="F22">
-        <v>0.9680808829061134</v>
+        <v>1.025021548684837</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033200274855487</v>
+        <v>1.028489068649543</v>
       </c>
       <c r="J22">
-        <v>0.995687783475746</v>
+        <v>1.021934250689791</v>
       </c>
       <c r="K22">
-        <v>1.006835649261798</v>
+        <v>1.025328308094179</v>
       </c>
       <c r="L22">
-        <v>0.9926626408642345</v>
+        <v>1.020564414818026</v>
       </c>
       <c r="M22">
-        <v>0.9843123388572248</v>
+        <v>1.028773601876947</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9652758176684938</v>
+        <v>1.015307470698635</v>
       </c>
       <c r="D23">
-        <v>0.9925342515561998</v>
+        <v>1.021826625786133</v>
       </c>
       <c r="E23">
-        <v>0.9782025729622221</v>
+        <v>1.01708725468484</v>
       </c>
       <c r="F23">
-        <v>0.9704727244894342</v>
+        <v>1.025471934266202</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033849929572093</v>
+        <v>1.02856827566133</v>
       </c>
       <c r="J23">
-        <v>0.9969197269919988</v>
+        <v>1.02216345467964</v>
       </c>
       <c r="K23">
-        <v>1.007938792998503</v>
+        <v>1.02552198512141</v>
       </c>
       <c r="L23">
-        <v>0.9938954188807519</v>
+        <v>1.020801224301613</v>
       </c>
       <c r="M23">
-        <v>0.9863257435838443</v>
+        <v>1.02915310938299</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9730635515716204</v>
+        <v>1.016742848515646</v>
       </c>
       <c r="D24">
-        <v>0.9980972235398713</v>
+        <v>1.022865824283058</v>
       </c>
       <c r="E24">
-        <v>0.9843171311632831</v>
+        <v>1.018300190914734</v>
       </c>
       <c r="F24">
-        <v>0.9796382384856636</v>
+        <v>1.027245120138137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036311238624373</v>
+        <v>1.028876049736453</v>
       </c>
       <c r="J24">
-        <v>1.001639431829283</v>
+        <v>1.023064781087575</v>
       </c>
       <c r="K24">
-        <v>1.012157836666123</v>
+        <v>1.026282368736473</v>
       </c>
       <c r="L24">
-        <v>0.9986253691165271</v>
+        <v>1.021733203601942</v>
       </c>
       <c r="M24">
-        <v>0.9940326207763738</v>
+        <v>1.030646020210326</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9817076725872974</v>
+        <v>1.01840899721076</v>
       </c>
       <c r="D25">
-        <v>1.004282821637245</v>
+        <v>1.02407051643096</v>
       </c>
       <c r="E25">
-        <v>0.9911406814623389</v>
+        <v>1.019710067185877</v>
       </c>
       <c r="F25">
-        <v>0.9898000936407114</v>
+        <v>1.029302957469763</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038979616837731</v>
+        <v>1.029224788115333</v>
       </c>
       <c r="J25">
-        <v>1.006866727426666</v>
+        <v>1.024108574423847</v>
       </c>
       <c r="K25">
-        <v>1.016815014148637</v>
+        <v>1.027160370238551</v>
       </c>
       <c r="L25">
-        <v>1.003878101619504</v>
+        <v>1.022814036219345</v>
       </c>
       <c r="M25">
-        <v>1.002558840949557</v>
+        <v>1.032376046083951</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_102/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_102/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019738287951536</v>
+        <v>0.988316983312867</v>
       </c>
       <c r="D2">
-        <v>1.025030341685802</v>
+        <v>1.009017903519744</v>
       </c>
       <c r="E2">
-        <v>1.020836431697836</v>
+        <v>0.9963847345116081</v>
       </c>
       <c r="F2">
-        <v>1.030944436962417</v>
+        <v>0.99756323227841</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029496139713008</v>
+        <v>1.04096685621361</v>
       </c>
       <c r="J2">
-        <v>1.02493935506123</v>
+        <v>1.010852836372217</v>
       </c>
       <c r="K2">
-        <v>1.027857106925973</v>
+        <v>1.020353018149685</v>
       </c>
       <c r="L2">
-        <v>1.023675539495702</v>
+        <v>1.007894666569465</v>
       </c>
       <c r="M2">
-        <v>1.033753982721449</v>
+        <v>1.00905661986194</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020703686673239</v>
+        <v>0.9929646367831182</v>
       </c>
       <c r="D3">
-        <v>1.025726643926148</v>
+        <v>1.012349381313163</v>
       </c>
       <c r="E3">
-        <v>1.021655332347686</v>
+        <v>1.000086690277572</v>
       </c>
       <c r="F3">
-        <v>1.032136402432164</v>
+        <v>1.003019541230735</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029689213294664</v>
+        <v>1.042332581709041</v>
       </c>
       <c r="J3">
-        <v>1.025541555563746</v>
+        <v>1.013648947790226</v>
       </c>
       <c r="K3">
-        <v>1.028360927276579</v>
+        <v>1.02282665081231</v>
       </c>
       <c r="L3">
-        <v>1.024300730009215</v>
+        <v>1.010718462005549</v>
       </c>
       <c r="M3">
-        <v>1.034753379959492</v>
+        <v>1.013613931708642</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021328463415899</v>
+        <v>0.9959062197391836</v>
       </c>
       <c r="D4">
-        <v>1.026176907473451</v>
+        <v>1.014458310612639</v>
       </c>
       <c r="E4">
-        <v>1.022185701889502</v>
+        <v>1.002436024241195</v>
       </c>
       <c r="F4">
-        <v>1.032907738130818</v>
+        <v>1.006472011252078</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029812313717949</v>
+        <v>1.043181965962655</v>
       </c>
       <c r="J4">
-        <v>1.025930745148472</v>
+        <v>1.01541522772641</v>
       </c>
       <c r="K4">
-        <v>1.028685970249506</v>
+        <v>1.024385313018999</v>
       </c>
       <c r="L4">
-        <v>1.024705110954109</v>
+        <v>1.012505137243404</v>
       </c>
       <c r="M4">
-        <v>1.035399548077043</v>
+        <v>1.016492947372889</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021591142922445</v>
+        <v>0.9971277080612968</v>
       </c>
       <c r="D5">
-        <v>1.026366127659805</v>
+        <v>1.015334067652191</v>
       </c>
       <c r="E5">
-        <v>1.022408784695844</v>
+        <v>1.003413046199821</v>
       </c>
       <c r="F5">
-        <v>1.033232021099601</v>
+        <v>1.007905468183299</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029863626293857</v>
+        <v>1.043531019660985</v>
       </c>
       <c r="J5">
-        <v>1.026094246310487</v>
+        <v>1.016147816815961</v>
       </c>
       <c r="K5">
-        <v>1.028822387181625</v>
+        <v>1.025030830334265</v>
       </c>
       <c r="L5">
-        <v>1.024875073954772</v>
+        <v>1.01324688164879</v>
       </c>
       <c r="M5">
-        <v>1.035671075563872</v>
+        <v>1.017687177673939</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021635249326208</v>
+        <v>0.9973319292873003</v>
       </c>
       <c r="D6">
-        <v>1.026397894390559</v>
+        <v>1.015480485674683</v>
       </c>
       <c r="E6">
-        <v>1.022446248024102</v>
+        <v>1.003576479718349</v>
       </c>
       <c r="F6">
-        <v>1.033286470437726</v>
+        <v>1.008145119434929</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029872216153353</v>
+        <v>1.043589161944906</v>
       </c>
       <c r="J6">
-        <v>1.026121692165338</v>
+        <v>1.016270247441953</v>
       </c>
       <c r="K6">
-        <v>1.028845278610151</v>
+        <v>1.025138652456352</v>
       </c>
       <c r="L6">
-        <v>1.024903609199129</v>
+        <v>1.013370883209033</v>
       </c>
       <c r="M6">
-        <v>1.035716659099356</v>
+        <v>1.017886766969213</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021331973261006</v>
+        <v>0.9959226001099599</v>
       </c>
       <c r="D7">
-        <v>1.026179436121619</v>
+        <v>1.01447005464244</v>
       </c>
       <c r="E7">
-        <v>1.022188682280392</v>
+        <v>1.00244912055054</v>
       </c>
       <c r="F7">
-        <v>1.032912071162373</v>
+        <v>1.006491234798424</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029813001084054</v>
+        <v>1.043186661331413</v>
       </c>
       <c r="J7">
-        <v>1.02593293030821</v>
+        <v>1.015425055300701</v>
       </c>
       <c r="K7">
-        <v>1.028687793968336</v>
+        <v>1.024393976359382</v>
       </c>
       <c r="L7">
-        <v>1.024707382161129</v>
+        <v>1.012515084884594</v>
       </c>
       <c r="M7">
-        <v>1.035403176718142</v>
+        <v>1.016508967235537</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020064528193567</v>
+        <v>0.9899016611275575</v>
       </c>
       <c r="D8">
-        <v>1.025265719823458</v>
+        <v>1.010153695371183</v>
       </c>
       <c r="E8">
-        <v>1.021113081816247</v>
+        <v>0.9976456123018275</v>
       </c>
       <c r="F8">
-        <v>1.03134725628497</v>
+        <v>0.9994238547140045</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029561768690441</v>
+        <v>1.041435637017876</v>
       </c>
       <c r="J8">
-        <v>1.025142969431612</v>
+        <v>1.011806905906198</v>
       </c>
       <c r="K8">
-        <v>1.028027574234045</v>
+        <v>1.021197862761158</v>
       </c>
       <c r="L8">
-        <v>1.023886858112236</v>
+        <v>1.008857569996413</v>
       </c>
       <c r="M8">
-        <v>1.034091839153248</v>
+        <v>1.010611635913294</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017831904535958</v>
+        <v>0.9787600997153504</v>
       </c>
       <c r="D9">
-        <v>1.02365345532043</v>
+        <v>1.002172499247459</v>
       </c>
       <c r="E9">
-        <v>1.019221498950827</v>
+        <v>0.9888095135953614</v>
       </c>
       <c r="F9">
-        <v>1.028590248579319</v>
+        <v>0.9863362008851431</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029105061681927</v>
+        <v>1.038077962439929</v>
       </c>
       <c r="J9">
-        <v>1.023747348534171</v>
+        <v>1.005085851493501</v>
       </c>
       <c r="K9">
-        <v>1.026856842232393</v>
+        <v>1.015230427230318</v>
       </c>
       <c r="L9">
-        <v>1.02243979969793</v>
+        <v>1.002086795929662</v>
       </c>
       <c r="M9">
-        <v>1.031777188906146</v>
+        <v>0.9996549233092445</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016344030523937</v>
+        <v>0.9709323446697883</v>
       </c>
       <c r="D10">
-        <v>1.022577206797014</v>
+        <v>0.9965738134271351</v>
       </c>
       <c r="E10">
-        <v>1.01796302558609</v>
+        <v>0.9826407384743032</v>
       </c>
       <c r="F10">
-        <v>1.026752478039145</v>
+        <v>0.977131052530632</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02879120178292</v>
+        <v>1.035642672814127</v>
       </c>
       <c r="J10">
-        <v>1.022814539440733</v>
+        <v>1.000348665827501</v>
       </c>
       <c r="K10">
-        <v>1.026071459071635</v>
+        <v>1.011005205509593</v>
       </c>
       <c r="L10">
-        <v>1.021474330670373</v>
+        <v>0.9973306564524517</v>
       </c>
       <c r="M10">
-        <v>1.030231445588204</v>
+        <v>0.9919258649249155</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015699896425218</v>
+        <v>0.9674375490543135</v>
       </c>
       <c r="D11">
-        <v>1.022110858042479</v>
+        <v>0.9940773503035352</v>
       </c>
       <c r="E11">
-        <v>1.017418715576875</v>
+        <v>0.9798967739009042</v>
       </c>
       <c r="F11">
-        <v>1.025956750587812</v>
+        <v>0.9730180067358302</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028653075352977</v>
+        <v>1.034538069393961</v>
       </c>
       <c r="J11">
-        <v>1.022410060726851</v>
+        <v>0.9982306356387588</v>
       </c>
       <c r="K11">
-        <v>1.025730226370975</v>
+        <v>1.009111830167125</v>
       </c>
       <c r="L11">
-        <v>1.021056098102066</v>
+        <v>0.99520803359919</v>
       </c>
       <c r="M11">
-        <v>1.029561489867695</v>
+        <v>0.9884673563472883</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01546065530643</v>
+        <v>0.9661226340028195</v>
       </c>
       <c r="D12">
-        <v>1.021937587281705</v>
+        <v>0.9931386255329837</v>
       </c>
       <c r="E12">
-        <v>1.01721662812849</v>
+        <v>0.9788659623088342</v>
       </c>
       <c r="F12">
-        <v>1.025661187059344</v>
+        <v>0.9714698956510854</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028601435420978</v>
+        <v>1.034119924830627</v>
       </c>
       <c r="J12">
-        <v>1.022259734669951</v>
+        <v>0.997433316726799</v>
       </c>
       <c r="K12">
-        <v>1.025603304157358</v>
+        <v>1.008398469908959</v>
       </c>
       <c r="L12">
-        <v>1.020900721670035</v>
+        <v>0.9944095754280254</v>
       </c>
       <c r="M12">
-        <v>1.029312541983181</v>
+        <v>0.9871648885778608</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015511972477741</v>
+        <v>0.9664054640335045</v>
       </c>
       <c r="D13">
-        <v>1.021974756608696</v>
+        <v>0.9933405121039256</v>
       </c>
       <c r="E13">
-        <v>1.017259972327397</v>
+        <v>0.9790876097238993</v>
       </c>
       <c r="F13">
-        <v>1.025724586223156</v>
+        <v>0.9718029123230651</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028612527453252</v>
+        <v>1.034209978671429</v>
       </c>
       <c r="J13">
-        <v>1.022291983943561</v>
+        <v>0.9976048328317554</v>
       </c>
       <c r="K13">
-        <v>1.025630537231348</v>
+        <v>1.008551952325419</v>
       </c>
       <c r="L13">
-        <v>1.020934051620927</v>
+        <v>0.9945813098607933</v>
       </c>
       <c r="M13">
-        <v>1.029365946525158</v>
+        <v>0.9874450963859528</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015680120291893</v>
+        <v>0.96732920619822</v>
       </c>
       <c r="D14">
-        <v>1.022096536402676</v>
+        <v>0.9939999916487198</v>
       </c>
       <c r="E14">
-        <v>1.017402009052943</v>
+        <v>0.979811806797814</v>
       </c>
       <c r="F14">
-        <v>1.025932319115601</v>
+        <v>0.9728904619094232</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028648813583898</v>
+        <v>1.0345036674098</v>
       </c>
       <c r="J14">
-        <v>1.022397636452607</v>
+        <v>0.9981649483548333</v>
       </c>
       <c r="K14">
-        <v>1.025719738471046</v>
+        <v>1.009053072092661</v>
       </c>
       <c r="L14">
-        <v>1.02104325516988</v>
+        <v>0.9951422404392559</v>
       </c>
       <c r="M14">
-        <v>1.029540913729659</v>
+        <v>0.9883600638163811</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015783724227672</v>
+        <v>0.9678960988125067</v>
       </c>
       <c r="D15">
-        <v>1.02217156261059</v>
+        <v>0.9944047864218518</v>
       </c>
       <c r="E15">
-        <v>1.01748953498373</v>
+        <v>0.9802564540468128</v>
       </c>
       <c r="F15">
-        <v>1.0260603108545</v>
+        <v>0.9735578026751529</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028671126468565</v>
+        <v>1.034683569177182</v>
       </c>
       <c r="J15">
-        <v>1.022462721245388</v>
+        <v>0.9985086337090973</v>
       </c>
       <c r="K15">
-        <v>1.025774675365808</v>
+        <v>1.009360478087755</v>
       </c>
       <c r="L15">
-        <v>1.021110535619872</v>
+        <v>0.9954865038096855</v>
       </c>
       <c r="M15">
-        <v>1.029648703995334</v>
+        <v>0.9889214113598305</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016386782233533</v>
+        <v>0.9711619827315041</v>
       </c>
       <c r="D16">
-        <v>1.02260815003692</v>
+        <v>0.9967379258289945</v>
       </c>
       <c r="E16">
-        <v>1.017999162721121</v>
+        <v>0.9828212583518999</v>
       </c>
       <c r="F16">
-        <v>1.026805288607026</v>
+        <v>0.9774012393789765</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028800321973304</v>
+        <v>1.035714899463258</v>
       </c>
       <c r="J16">
-        <v>1.022841371466759</v>
+        <v>1.000487778978508</v>
       </c>
       <c r="K16">
-        <v>1.026094081242707</v>
+        <v>1.011129477123368</v>
       </c>
       <c r="L16">
-        <v>1.021502083680833</v>
+        <v>0.9974701525214901</v>
       </c>
       <c r="M16">
-        <v>1.030275894840318</v>
+        <v>0.9921529537117593</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016765098212869</v>
+        <v>0.9731817267829957</v>
       </c>
       <c r="D17">
-        <v>1.022881923152811</v>
+        <v>0.9981817175771197</v>
       </c>
       <c r="E17">
-        <v>1.018319004553044</v>
+        <v>0.9844101551973675</v>
       </c>
       <c r="F17">
-        <v>1.027272603411322</v>
+        <v>0.9797772395595581</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028880767988118</v>
+        <v>1.03634819416279</v>
       </c>
       <c r="J17">
-        <v>1.023078737447903</v>
+        <v>1.001710984176038</v>
       </c>
       <c r="K17">
-        <v>1.026294126859509</v>
+        <v>1.01222170315843</v>
       </c>
       <c r="L17">
-        <v>1.021747644121872</v>
+        <v>0.9986971662828463</v>
       </c>
       <c r="M17">
-        <v>1.030669143713461</v>
+        <v>0.994149387970803</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016985775589159</v>
+        <v>0.974349716226368</v>
       </c>
       <c r="D18">
-        <v>1.02304157886023</v>
+        <v>0.9990169325859691</v>
       </c>
       <c r="E18">
-        <v>1.018505622386642</v>
+        <v>0.98532994894673</v>
       </c>
       <c r="F18">
-        <v>1.027545184080056</v>
+        <v>0.981150940546598</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028927476274301</v>
+        <v>1.036712772407344</v>
       </c>
       <c r="J18">
-        <v>1.023217134349091</v>
+        <v>1.002418053631707</v>
       </c>
       <c r="K18">
-        <v>1.026410698449219</v>
+        <v>1.012852656657097</v>
       </c>
       <c r="L18">
-        <v>1.021890858152786</v>
+        <v>0.9994068042389096</v>
       </c>
       <c r="M18">
-        <v>1.030898457543139</v>
+        <v>0.9953031635742656</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01706102291337</v>
+        <v>0.974746286643457</v>
       </c>
       <c r="D19">
-        <v>1.023096011956427</v>
+        <v>0.9993005617566969</v>
       </c>
       <c r="E19">
-        <v>1.018569264314186</v>
+        <v>0.9856424089815951</v>
       </c>
       <c r="F19">
-        <v>1.027638127722175</v>
+        <v>0.9816173071534096</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028943366196717</v>
+        <v>1.036836277235254</v>
       </c>
       <c r="J19">
-        <v>1.023264314831975</v>
+        <v>1.002658075650467</v>
       </c>
       <c r="K19">
-        <v>1.026450427396257</v>
+        <v>1.013066771026726</v>
       </c>
       <c r="L19">
-        <v>1.021939687499553</v>
+        <v>0.9996477602312844</v>
       </c>
       <c r="M19">
-        <v>1.030976637203832</v>
+        <v>0.9956947844440384</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0167245072393</v>
+        <v>0.9729660780902459</v>
       </c>
       <c r="D20">
-        <v>1.022852553141931</v>
+        <v>0.9980275326542137</v>
       </c>
       <c r="E20">
-        <v>1.018284682390856</v>
+        <v>0.9842404083258808</v>
       </c>
       <c r="F20">
-        <v>1.027222464563033</v>
+        <v>0.9795235856581967</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028872159077529</v>
+        <v>1.036280747562088</v>
       </c>
       <c r="J20">
-        <v>1.023053275975167</v>
+        <v>1.001580412235501</v>
       </c>
       <c r="K20">
-        <v>1.026272675400665</v>
+        <v>1.012105154420602</v>
       </c>
       <c r="L20">
-        <v>1.021721299587774</v>
+        <v>0.9985661496610367</v>
       </c>
       <c r="M20">
-        <v>1.030626958204817</v>
+        <v>0.9939363045081371</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015630604426773</v>
+        <v>0.967057658871315</v>
       </c>
       <c r="D21">
-        <v>1.022060676608264</v>
+        <v>0.9938061116951237</v>
       </c>
       <c r="E21">
-        <v>1.017360180189406</v>
+        <v>0.979598873862783</v>
       </c>
       <c r="F21">
-        <v>1.025871146822926</v>
+        <v>0.9725707776952077</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02863813742968</v>
+        <v>1.034417402653893</v>
       </c>
       <c r="J21">
-        <v>1.022366526755538</v>
+        <v>0.9980003052375347</v>
       </c>
       <c r="K21">
-        <v>1.025693475705704</v>
+        <v>1.008905787072869</v>
       </c>
       <c r="L21">
-        <v>1.021011098166544</v>
+        <v>0.9949773414645597</v>
       </c>
       <c r="M21">
-        <v>1.029489392917172</v>
+        <v>0.988091129442201</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014942934119008</v>
+        <v>0.9632451082928706</v>
       </c>
       <c r="D22">
-        <v>1.021562514736038</v>
+        <v>0.9910855014775922</v>
       </c>
       <c r="E22">
-        <v>1.016779450451999</v>
+        <v>0.9766132009205961</v>
       </c>
       <c r="F22">
-        <v>1.025021548684837</v>
+        <v>0.9680808829061124</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028489068649543</v>
+        <v>1.033200274855486</v>
       </c>
       <c r="J22">
-        <v>1.021934250689791</v>
+        <v>0.9956877834757452</v>
       </c>
       <c r="K22">
-        <v>1.025328308094179</v>
+        <v>1.006835649261798</v>
       </c>
       <c r="L22">
-        <v>1.020564414818026</v>
+        <v>0.9926626408642332</v>
       </c>
       <c r="M22">
-        <v>1.028773601876947</v>
+        <v>0.9843123388572241</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015307470698635</v>
+        <v>0.9652758176684932</v>
       </c>
       <c r="D23">
-        <v>1.021826625786133</v>
+        <v>0.9925342515561998</v>
       </c>
       <c r="E23">
-        <v>1.01708725468484</v>
+        <v>0.9782025729622217</v>
       </c>
       <c r="F23">
-        <v>1.025471934266202</v>
+        <v>0.9704727244894341</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02856827566133</v>
+        <v>1.033849929572093</v>
       </c>
       <c r="J23">
-        <v>1.02216345467964</v>
+        <v>0.9969197269919984</v>
       </c>
       <c r="K23">
-        <v>1.02552198512141</v>
+        <v>1.007938792998503</v>
       </c>
       <c r="L23">
-        <v>1.020801224301613</v>
+        <v>0.9938954188807515</v>
       </c>
       <c r="M23">
-        <v>1.02915310938299</v>
+        <v>0.986325743583844</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016742848515646</v>
+        <v>0.9730635515716198</v>
       </c>
       <c r="D24">
-        <v>1.022865824283058</v>
+        <v>0.9980972235398712</v>
       </c>
       <c r="E24">
-        <v>1.018300190914734</v>
+        <v>0.9843171311632829</v>
       </c>
       <c r="F24">
-        <v>1.027245120138137</v>
+        <v>0.9796382384856634</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028876049736453</v>
+        <v>1.036311238624373</v>
       </c>
       <c r="J24">
-        <v>1.023064781087575</v>
+        <v>1.001639431829283</v>
       </c>
       <c r="K24">
-        <v>1.026282368736473</v>
+        <v>1.012157836666122</v>
       </c>
       <c r="L24">
-        <v>1.021733203601942</v>
+        <v>0.9986253691165268</v>
       </c>
       <c r="M24">
-        <v>1.030646020210326</v>
+        <v>0.9940326207763737</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01840899721076</v>
+        <v>0.9817076725872973</v>
       </c>
       <c r="D25">
-        <v>1.02407051643096</v>
+        <v>1.004282821637245</v>
       </c>
       <c r="E25">
-        <v>1.019710067185877</v>
+        <v>0.9911406814623387</v>
       </c>
       <c r="F25">
-        <v>1.029302957469763</v>
+        <v>0.9898000936407112</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029224788115333</v>
+        <v>1.038979616837731</v>
       </c>
       <c r="J25">
-        <v>1.024108574423847</v>
+        <v>1.006866727426666</v>
       </c>
       <c r="K25">
-        <v>1.027160370238551</v>
+        <v>1.016815014148637</v>
       </c>
       <c r="L25">
-        <v>1.022814036219345</v>
+        <v>1.003878101619504</v>
       </c>
       <c r="M25">
-        <v>1.032376046083951</v>
+        <v>1.002558840949557</v>
       </c>
     </row>
   </sheetData>
